--- a/xlsx/人性_intext.xlsx
+++ b/xlsx/人性_intext.xlsx
@@ -29,13 +29,13 @@
     <t>人</t>
   </si>
   <si>
-    <t>政策_政策_政治學_人性</t>
+    <t>政策_政策_政治学_人性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%AB%AF%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極端民族主義</t>
+    <t>极端民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%83%85%E8%AE%BA</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>學習時報</t>
+    <t>学习时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>心理唯我論</t>
+    <t>心理唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%BA%E7%B1%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>人類演化</t>
+    <t>人类演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%A4%96%E8%B2%8C</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%80%A7%E5%BE%B5</t>
   </si>
   <si>
-    <t>第二性徵</t>
+    <t>第二性征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2</t>
   </si>
   <si>
-    <t>金錢</t>
+    <t>金钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>

--- a/xlsx/人性_intext.xlsx
+++ b/xlsx/人性_intext.xlsx
@@ -29,7 +29,7 @@
     <t>人</t>
   </si>
   <si>
-    <t>政策_政策_政治學_人性</t>
+    <t>体育运动_体育运动_种族歧视_人性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%AB%AF%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
